--- a/BalanceSheet/ZBRA_bal.xlsx
+++ b/BalanceSheet/ZBRA_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>511000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>29000000.0</v>
+        <v>484000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-69000000.0</v>
+        <v>513000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>33000000.0</v>
+        <v>443000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>474000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>468000000.0</v>
@@ -2068,19 +2068,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>54000000.0</v>
+        <v>601000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>39000000.0</v>
+        <v>546000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>63000000.0</v>
+        <v>503000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-109000000.0</v>
+        <v>447000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>46000000.0</v>
+        <v>552000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>502000000.0</v>
@@ -3336,19 +3336,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-38000000.0</v>
+        <v>-139000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>-84000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8000000.0</v>
+        <v>-123000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>-129000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>-127000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1000000.0</v>
